--- a/observeddata/Ebola_Incidence_Data_4zones.xlsx
+++ b/observeddata/Ebola_Incidence_Data_4zones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\spatialEpisim2022\spatialEpisim\observeddata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\observeddata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802F88BF-701E-4F94-983D-4E9061445BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90020B66-38E8-41AD-9D96-E473CECED85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidence" sheetId="1" r:id="rId1"/>
@@ -467,20 +467,20 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -508,19 +508,19 @@
         <v>43682</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2">
         <v>34</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -560,7 +560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>

--- a/observeddata/Ebola_Incidence_Data_4zones.xlsx
+++ b/observeddata/Ebola_Incidence_Data_4zones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\observeddata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cupcake\Documents\MRU\Year 4\Winter\Senior Project\spatialEpisim\observeddata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90020B66-38E8-41AD-9D96-E473CECED85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80E6EB4-077B-4A20-9EF9-DEC8DBC8C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidence" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -308,7 +308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,7 +467,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>43682</v>
+        <v>43317</v>
       </c>
       <c r="C2" s="2">
         <v>34</v>
@@ -525,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>43689</v>
+        <v>43324</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>43697</v>
+        <v>43332</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>43703</v>
+        <v>43338</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -585,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>43710</v>
+        <v>43345</v>
       </c>
       <c r="C6" s="2">
         <v>8</v>
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>43724</v>
+        <v>43359</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -645,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>43731</v>
+        <v>43366</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -665,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>43740</v>
+        <v>43375</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>43745</v>
+        <v>43380</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
@@ -705,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>43753</v>
+        <v>43388</v>
       </c>
       <c r="C12" s="2">
         <v>28</v>
@@ -725,7 +725,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>43759</v>
+        <v>43394</v>
       </c>
       <c r="C13" s="2">
         <v>19</v>
@@ -745,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>43766</v>
+        <v>43401</v>
       </c>
       <c r="C14" s="2">
         <v>28</v>
@@ -765,7 +765,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>43773</v>
+        <v>43408</v>
       </c>
       <c r="C15" s="2">
         <v>16</v>
@@ -785,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>43780</v>
+        <v>43415</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -805,7 +805,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>43788</v>
+        <v>43423</v>
       </c>
       <c r="C17" s="2">
         <v>14</v>
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>43795</v>
+        <v>43430</v>
       </c>
       <c r="C18" s="2">
         <v>13</v>
@@ -845,7 +845,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>43802</v>
+        <v>43437</v>
       </c>
       <c r="C19" s="2">
         <v>8</v>
@@ -865,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>43809</v>
+        <v>43444</v>
       </c>
       <c r="C20" s="2">
         <v>16</v>
@@ -885,7 +885,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>43815</v>
+        <v>43450</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -905,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>43824</v>
+        <v>43459</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
